--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251018_201646.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251018_201646.xlsx
@@ -5003,7 +5003,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
